--- a/fake_data.xlsx
+++ b/fake_data.xlsx
@@ -30506,8 +30506,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BC00E0176D892C48830C26CF90373DA7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90a3331b3b3cca59e4eaaafa569d7bd8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3988ec01-8a48-434d-bc27-97741a13905d" xmlns:ns3="06cb1db1-651a-4512-801e-a61778836bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ae181fb059705066c08413dcb2db096" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BC00E0176D892C48830C26CF90373DA7" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8654091b180ae87c484b2003457cbb21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3988ec01-8a48-434d-bc27-97741a13905d" xmlns:ns3="06cb1db1-651a-4512-801e-a61778836bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c31acd6c28b47308ba52e62ae1b370f" ns2:_="" ns3:_="">
     <xsd:import namespace="3988ec01-8a48-434d-bc27-97741a13905d"/>
     <xsd:import namespace="06cb1db1-651a-4512-801e-a61778836bfc"/>
     <xsd:element name="properties">
@@ -30600,7 +30600,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -30611,7 +30611,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="06cb1db1-651a-4512-801e-a61778836bfc" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -30630,7 +30630,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -30658,8 +30658,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -30769,7 +30769,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15297D15-EF9E-4188-9102-6B003263A1A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E88634E-E28E-42FA-AE2B-8DF563001EF5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
